--- a/Qogita Analyse v3_check+JEWLWW(photo).xlsx
+++ b/Qogita Analyse v3_check+JEWLWW(photo).xlsx
@@ -865,7 +865,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>48k (1%)</t>
@@ -973,7 +977,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>51k (1%)</t>
@@ -1077,7 +1085,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>175k (3%)</t>
@@ -1181,7 +1193,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>64k (2%)</t>
@@ -1285,7 +1301,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>89k (2%)</t>
@@ -1389,7 +1409,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>71k (2%)</t>
@@ -1493,7 +1517,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>21k (1%)</t>
@@ -1597,7 +1625,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>52k (1%)</t>
@@ -1701,7 +1733,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>98k (2%)</t>
@@ -1805,7 +1841,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>45k (1%)</t>
@@ -1909,7 +1949,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>44k (1%)</t>
@@ -2021,7 +2065,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>34k (1%)</t>
@@ -2129,7 +2177,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr">
         <is>
           <t>91k (2%)</t>
@@ -2233,7 +2285,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>90k (2%)</t>
@@ -2337,7 +2393,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>67k (2%)</t>
@@ -2441,7 +2501,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>108k (2%)</t>
@@ -2545,7 +2609,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>113k (2%)</t>
@@ -2657,7 +2725,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>197k (4%)</t>
@@ -2761,7 +2833,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>179k (3%)</t>
@@ -2863,7 +2939,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>31k (1%)</t>
@@ -2967,7 +3047,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>335k (6%)</t>
@@ -3071,7 +3155,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr">
         <is>
           <t>281k (1%)</t>

--- a/Qogita Analyse v3_check+JEWLWW(photo).xlsx
+++ b/Qogita Analyse v3_check+JEWLWW(photo).xlsx
@@ -3367,7 +3367,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>87k (2%)</t>
@@ -3471,7 +3475,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr">
         <is>
           <t>165k (3%)</t>
@@ -3575,7 +3583,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>187k (4%)</t>
@@ -3679,7 +3691,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr">
         <is>
           <t>110k (2%)</t>
@@ -3791,7 +3807,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
           <t>110k (2%)</t>
@@ -3903,7 +3923,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr">
         <is>
           <t>155k (3%)</t>

--- a/Qogita Analyse v3_check+JEWLWW(photo).xlsx
+++ b/Qogita Analyse v3_check+JEWLWW(photo).xlsx
@@ -3263,7 +3263,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>54k (1%)</t>
@@ -4031,7 +4035,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr">
         <is>
           <t>43k (1%)</t>
@@ -4239,7 +4247,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr">
         <is>
           <t>89k (2%)</t>
@@ -4343,7 +4355,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr">
         <is>
           <t>98k (2%)</t>
@@ -4447,7 +4463,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr">
         <is>
           <t>142k (3%)</t>
@@ -4551,7 +4571,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr">
         <is>
           <t>353k (6%)</t>
@@ -4655,7 +4679,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr">
         <is>
           <t>359k (6%)</t>
@@ -4767,7 +4795,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr">
         <is>
           <t>360k (6%)</t>
@@ -4871,7 +4903,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr">
         <is>
           <t>381k (7%)</t>
@@ -4975,7 +5011,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr">
         <is>
           <t>396k (7%)</t>
@@ -5087,7 +5127,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr">
         <is>
           <t>149k (3%)</t>
@@ -5195,7 +5239,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr">
         <is>
           <t>289k (5%)</t>
@@ -5299,7 +5347,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr">
         <is>
           <t>329k (6%)</t>
@@ -5403,7 +5455,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr">
         <is>
           <t>308k (6%)</t>
@@ -5515,7 +5571,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr">
         <is>
           <t>260k (5%)</t>
@@ -5623,7 +5683,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr">
         <is>
           <t>353k (6%)</t>
@@ -5735,7 +5799,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr">
         <is>
           <t>160k (2%)</t>
@@ -5843,7 +5911,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr">
         <is>
           <t>167k (3%)</t>

--- a/Qogita Analyse v3_check+JEWLWW(photo).xlsx
+++ b/Qogita Analyse v3_check+JEWLWW(photo).xlsx
@@ -6131,7 +6131,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr">
         <is>
           <t>228k (4%)</t>
@@ -6243,7 +6247,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr">
         <is>
           <t>209k (4%)</t>
@@ -6355,7 +6363,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr">
         <is>
           <t>149k (3%)</t>

--- a/Qogita Analyse v3_check+JEWLWW(photo).xlsx
+++ b/Qogita Analyse v3_check+JEWLWW(photo).xlsx
@@ -6475,7 +6475,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr">
         <is>
           <t>385k (7%)</t>
@@ -6579,7 +6583,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr">
         <is>
           <t>338k (6%)</t>
@@ -6687,7 +6695,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr">
         <is>
           <t>136k (3%)</t>
@@ -6791,7 +6803,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr">
         <is>
           <t>338k (6%)</t>
@@ -6895,7 +6911,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr">
         <is>
           <t>433k (8%)</t>
@@ -6999,7 +7019,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr">
         <is>
           <t>347k (6%)</t>
@@ -7103,7 +7127,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr">
         <is>
           <t>267k (5%)</t>
